--- a/results/FrequencyTables/27341108_gRNA-2.xlsx
+++ b/results/FrequencyTables/27341108_gRNA-2.xlsx
@@ -465,73 +465,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.494736842105263</v>
+        <v>0.457784663051898</v>
       </c>
       <c r="C2">
-        <v>0.884210526315789</v>
+        <v>0.814872192099148</v>
       </c>
       <c r="D2">
-        <v>0.0210526315789474</v>
+        <v>0.0766847405112316</v>
       </c>
       <c r="E2">
-        <v>0.4</v>
+        <v>0.410534469403563</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.0890782339271882</v>
       </c>
       <c r="G2">
-        <v>0.610526315789474</v>
+        <v>0.619674670797831</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.010844306738962</v>
       </c>
       <c r="I2">
-        <v>0.631578947368421</v>
+        <v>0.587141750580945</v>
       </c>
       <c r="J2">
-        <v>0.989473684210526</v>
+        <v>0.922540666150271</v>
       </c>
       <c r="K2">
-        <v>0.0526315789473684</v>
+        <v>0.125484120836561</v>
       </c>
       <c r="L2">
-        <v>0.663157894736842</v>
+        <v>0.68009295120062</v>
       </c>
       <c r="M2">
-        <v>0.442105263157895</v>
+        <v>0.419829589465531</v>
       </c>
       <c r="N2">
-        <v>0.0210526315789474</v>
+        <v>0.0209140201394268</v>
       </c>
       <c r="O2">
-        <v>0.0631578947368421</v>
+        <v>0.103020914020139</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.00154918667699458</v>
       </c>
       <c r="Q2">
-        <v>1</v>
+        <v>0.993803253292022</v>
       </c>
       <c r="R2">
-        <v>0.631578947368421</v>
+        <v>0.65143299767622</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.00232378001549187</v>
       </c>
       <c r="T2">
-        <v>0.8</v>
+        <v>0.654531371030209</v>
       </c>
       <c r="U2">
-        <v>0.547368421052632</v>
+        <v>0.635941130906274</v>
       </c>
       <c r="V2">
-        <v>0.568421052631579</v>
+        <v>0.562354763749032</v>
       </c>
       <c r="W2">
-        <v>0.0421052631578947</v>
+        <v>0.0449264136328428</v>
       </c>
       <c r="X2">
-        <v>0.0842105263157895</v>
+        <v>0.109217660728118</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,73 +539,73 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0421052631578947</v>
+        <v>0.0565453137103021</v>
       </c>
       <c r="C3">
-        <v>0.0526315789473684</v>
+        <v>0.0960495739736638</v>
       </c>
       <c r="D3">
-        <v>0.378947368421053</v>
+        <v>0.341595662277304</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.0069713400464756</v>
       </c>
       <c r="F3">
-        <v>0.357894736842105</v>
+        <v>0.297443841982959</v>
       </c>
       <c r="G3">
-        <v>0.336842105263158</v>
+        <v>0.286599535243997</v>
       </c>
       <c r="H3">
-        <v>0.347368421052632</v>
+        <v>0.304415182029435</v>
       </c>
       <c r="I3">
-        <v>0.0736842105263158</v>
+        <v>0.0735863671572424</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.00929512006196747</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.024012393493416</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.0286599535243997</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.0131680867544539</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.0116189000774593</v>
       </c>
       <c r="O3">
-        <v>0.936842105263158</v>
+        <v>0.894655305964369</v>
       </c>
       <c r="P3">
-        <v>0.957894736842105</v>
+        <v>0.92563903950426</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>0.00464756003098373</v>
       </c>
       <c r="R3">
-        <v>0.0210526315789474</v>
+        <v>0.0503485670023238</v>
       </c>
       <c r="S3">
-        <v>0.421052631578947</v>
+        <v>0.477924089852827</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.00387296669248644</v>
       </c>
       <c r="U3">
-        <v>0.0842105263157895</v>
+        <v>0.0379550735863672</v>
       </c>
       <c r="V3">
-        <v>0.0631578947368421</v>
+        <v>0.0658404337722696</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.0232378001549187</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.0193648334624322</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,73 +613,73 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.115789473684211</v>
+        <v>0.201394268009295</v>
       </c>
       <c r="C4">
-        <v>0.0631578947368421</v>
+        <v>0.0658404337722696</v>
       </c>
       <c r="D4">
-        <v>0.505263157894737</v>
+        <v>0.49419054996127</v>
       </c>
       <c r="E4">
-        <v>0.589473684210526</v>
+        <v>0.554608830364059</v>
       </c>
       <c r="F4">
-        <v>0.0105263157894737</v>
+        <v>0.0410534469403563</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0224632068164214</v>
       </c>
       <c r="H4">
-        <v>0.652631578947368</v>
+        <v>0.649109217660728</v>
       </c>
       <c r="I4">
-        <v>0.0210526315789474</v>
+        <v>0.0565453137103021</v>
       </c>
       <c r="J4">
-        <v>0.0105263157894737</v>
+        <v>0.0511231603408211</v>
       </c>
       <c r="K4">
-        <v>0.6</v>
+        <v>0.557707203718048</v>
       </c>
       <c r="L4">
-        <v>0.336842105263158</v>
+        <v>0.281177381874516</v>
       </c>
       <c r="M4">
-        <v>0.557894736842105</v>
+        <v>0.556158017041053</v>
       </c>
       <c r="N4">
-        <v>0.978947368421053</v>
+        <v>0.960495739736638</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.0421052631578947</v>
+        <v>0.0542215336948102</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0.347368421052632</v>
+        <v>0.292021688613478</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.010844306738962</v>
       </c>
       <c r="T4">
-        <v>0.2</v>
+        <v>0.31990704879938</v>
       </c>
       <c r="U4">
-        <v>0.0210526315789474</v>
+        <v>0.0255615801704105</v>
       </c>
       <c r="V4">
-        <v>0.368421052631579</v>
+        <v>0.320681642137878</v>
       </c>
       <c r="W4">
-        <v>0.936842105263158</v>
+        <v>0.850503485670023</v>
       </c>
       <c r="X4">
-        <v>0.894736842105263</v>
+        <v>0.817970565453137</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,73 +687,73 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.347368421052632</v>
+        <v>0.283501161890008</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.0224632068164214</v>
       </c>
       <c r="D5">
-        <v>0.0947368421052632</v>
+        <v>0.0875290472501936</v>
       </c>
       <c r="E5">
-        <v>0.0105263157894737</v>
+        <v>0.0278853601859024</v>
       </c>
       <c r="F5">
-        <v>0.631578947368421</v>
+        <v>0.571649883810999</v>
       </c>
       <c r="G5">
-        <v>0.0526315789473684</v>
+        <v>0.0712625871417506</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0356312935708753</v>
       </c>
       <c r="I5">
-        <v>0.273684210526316</v>
+        <v>0.28272656855151</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.0170410534469404</v>
       </c>
       <c r="K5">
-        <v>0.347368421052632</v>
+        <v>0.292796281951975</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.00929512006196747</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.010844306738962</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.0069713400464756</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.00232378001549187</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.0185902401239349</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.00154918667699458</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.00542215336948102</v>
       </c>
       <c r="S5">
-        <v>0.578947368421053</v>
+        <v>0.508907823392719</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.0216886134779241</v>
       </c>
       <c r="U5">
-        <v>0.347368421052632</v>
+        <v>0.299767621998451</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.0511231603408211</v>
       </c>
       <c r="W5">
-        <v>0.0210526315789474</v>
+        <v>0.0813323005422153</v>
       </c>
       <c r="X5">
-        <v>0.0210526315789474</v>
+        <v>0.0526723470178156</v>
       </c>
     </row>
   </sheetData>
